--- a/p_arrs/p_arr_10_row_20_20_20_col_2_lp_1_sym.xlsx
+++ b/p_arrs/p_arr_10_row_20_20_20_col_2_lp_1_sym.xlsx
@@ -28169,7 +28169,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0499999999999994</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -28345,7 +28345,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28">
@@ -28649,7 +28649,7 @@
         <v>65</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0499999999999994</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="66">
@@ -28825,7 +28825,7 @@
         <v>87</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="88">
@@ -31705,7 +31705,7 @@
         <v>447</v>
       </c>
       <c r="B447" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="448">
@@ -32345,7 +32345,7 @@
         <v>527</v>
       </c>
       <c r="B527" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="528">
@@ -38729,7 +38729,7 @@
         <v>1325</v>
       </c>
       <c r="B1325" t="n">
-        <v>0.0499999999999994</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1326">
@@ -42265,7 +42265,7 @@
         <v>1767</v>
       </c>
       <c r="B1767" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1768">
@@ -42425,7 +42425,7 @@
         <v>1787</v>
       </c>
       <c r="B1787" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="1788">
@@ -87945,7 +87945,7 @@
         <v>7477</v>
       </c>
       <c r="B7477" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7478">
@@ -88105,7 +88105,7 @@
         <v>7497</v>
       </c>
       <c r="B7497" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7498">
@@ -91641,7 +91641,7 @@
         <v>7939</v>
       </c>
       <c r="B7939" t="n">
-        <v>0.0499999999999994</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7940">
@@ -98025,7 +98025,7 @@
         <v>8737</v>
       </c>
       <c r="B8737" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8738">
@@ -98665,7 +98665,7 @@
         <v>8817</v>
       </c>
       <c r="B8817" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8818">
@@ -101545,7 +101545,7 @@
         <v>9177</v>
       </c>
       <c r="B9177" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9178">
@@ -101721,7 +101721,7 @@
         <v>9199</v>
       </c>
       <c r="B9199" t="n">
-        <v>0.0499999999999994</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9200">
@@ -102025,7 +102025,7 @@
         <v>9237</v>
       </c>
       <c r="B9237" t="n">
-        <v>0.0500000000000008</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9238">
@@ -102201,7 +102201,7 @@
         <v>9259</v>
       </c>
       <c r="B9259" t="n">
-        <v>0.0499999999999994</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9260">
